--- a/data/trans_orig/dukeGLOBAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,57; 49,05</t>
+          <t>47,51; 48,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,24; 49,72</t>
+          <t>48,24; 49,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,22; 48,59</t>
+          <t>47,33; 48,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,77; 50,08</t>
+          <t>48,75; 50,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,27; 49,08</t>
+          <t>47,21; 49,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,16; 49,67</t>
+          <t>47,99; 49,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,4; 48,7</t>
+          <t>47,42; 48,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,88; 50,94</t>
+          <t>49,93; 50,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,62; 48,83</t>
+          <t>47,65; 48,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,33; 49,5</t>
+          <t>48,41; 49,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,46; 48,42</t>
+          <t>47,52; 48,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,5; 50,35</t>
+          <t>49,51; 50,34</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,3; 49,15</t>
+          <t>47,29; 49,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,37; 49,83</t>
+          <t>48,39; 49,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,22; 48,63</t>
+          <t>47,21; 48,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,77; 49,19</t>
+          <t>47,78; 49,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,44; 48,94</t>
+          <t>47,4; 48,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,92; 48,73</t>
+          <t>46,97; 48,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,21; 48,52</t>
+          <t>47,24; 48,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,2; 49,45</t>
+          <t>48,19; 49,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,67; 48,85</t>
+          <t>47,68; 48,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,01; 49,19</t>
+          <t>47,93; 49,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,4; 48,39</t>
+          <t>47,43; 48,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,14; 49,12</t>
+          <t>48,2; 49,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,44; 47,81</t>
+          <t>46,45; 47,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,26; 49,37</t>
+          <t>48,31; 49,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,62; 46,89</t>
+          <t>45,54; 46,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,91; 53,37</t>
+          <t>47,99; 53,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,36; 48,04</t>
+          <t>45,41; 48,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,77; 49,39</t>
+          <t>47,82; 49,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,56; 46,58</t>
+          <t>43,6; 46,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,25; 49,05</t>
+          <t>47,3; 49,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,49; 47,64</t>
+          <t>46,43; 47,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,27; 49,16</t>
+          <t>48,32; 49,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>45,4; 46,59</t>
+          <t>45,38; 46,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,94; 52,79</t>
+          <t>47,93; 52,83</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,49; 47,42</t>
+          <t>46,51; 47,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,15; 48,09</t>
+          <t>47,14; 48,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,22; 47,03</t>
+          <t>46,18; 46,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,43; 48,4</t>
+          <t>47,43; 48,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 46,94</t>
+          <t>45,72; 46,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,63; 47,8</t>
+          <t>46,61; 47,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,04; 47,08</t>
+          <t>46,12; 47,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,8; 48,74</t>
+          <t>47,79; 48,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,36; 47,1</t>
+          <t>46,38; 47,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,11; 47,81</t>
+          <t>47,13; 47,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,29; 46,94</t>
+          <t>46,29; 46,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 47,55</t>
+          <t>45,76; 47,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,94; 48,27</t>
+          <t>47,03; 48,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,44</t>
+          <t>45,22; 46,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44,81; 46,57</t>
+          <t>44,87; 46,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,47; 46,08</t>
+          <t>44,48; 45,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,28; 47,32</t>
+          <t>46,22; 47,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,94; 46,01</t>
+          <t>44,94; 46,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,92</t>
+          <t>45,63; 48,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,17; 46,35</t>
+          <t>45,16; 46,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,74; 47,57</t>
+          <t>46,72; 47,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,25; 46,08</t>
+          <t>45,23; 46,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,63; 48,25</t>
+          <t>45,55; 47,96</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,53; 50,77</t>
+          <t>49,5; 50,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,26; 50,61</t>
+          <t>49,29; 50,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,74; 49,06</t>
+          <t>47,8; 49,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,69</t>
+          <t>50,79; 52,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,76; 46,78</t>
+          <t>45,74; 46,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,25; 48,11</t>
+          <t>47,25; 48,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,77; 46,73</t>
+          <t>45,8; 46,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,58; 47,73</t>
+          <t>46,55; 47,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,57; 47,41</t>
+          <t>46,55; 47,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,73; 48,51</t>
+          <t>47,77; 48,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>46,33; 47,12</t>
+          <t>46,32; 47,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>47,73; 48,79</t>
+          <t>47,81; 48,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,31; 47,89</t>
+          <t>47,32; 47,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,15; 48,67</t>
+          <t>48,14; 48,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,66; 47,12</t>
+          <t>46,63; 47,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48,18; 50,31</t>
+          <t>48,18; 50,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,22; 46,81</t>
+          <t>46,23; 46,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,37; 47,87</t>
+          <t>47,35; 47,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,21; 46,73</t>
+          <t>46,22; 46,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,51</t>
+          <t>47,7; 48,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,86; 47,26</t>
+          <t>46,85; 47,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>47,8; 48,17</t>
+          <t>47,81; 48,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,52; 46,87</t>
+          <t>46,51; 46,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,29</t>
+          <t>48,03; 49,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeGLOBAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
